--- a/biology/Botanique/Parc_Yuyuantan/Parc_Yuyuantan.xlsx
+++ b/biology/Botanique/Parc_Yuyuantan/Parc_Yuyuantan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Yuyuantan (chinois : 玉渊潭公园 ; pinyin : Yùyuāntán gōngyuán ; traduction : « parc du lac profond de jade ») est l'un des plus grands parcs publics de Pékin. Situé dans le district de Haidian, dans l'ouest de la ville, il couvre une superficie de 137 hectares.
 Le principal lac dont le parc Yuyuantan tire son nom couvre près de la moitié de la surface du parc, avec 61 hectares : il est divisé en deux bassins, le lac oriental (chinois : 东湖 ; pinyin : dōng hú) et le lac occidental (chinois : 西湖 ; pinyin : xī hú), par le « pont de la digue du milieu » (chinois : 中堤桥 ; pinyin : zhōngdī qiáo).
